--- a/biology/Zoologie/Hirondelle_à_gorge_fauve/Hirondelle_à_gorge_fauve.xlsx
+++ b/biology/Zoologie/Hirondelle_à_gorge_fauve/Hirondelle_à_gorge_fauve.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hirondelle_%C3%A0_gorge_fauve</t>
+          <t>Hirondelle_à_gorge_fauve</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petrochelidon rufigula
 L'Hirondelle à gorge fauve (Petrochelidon rufigula) est une espèce de passereaux de la famille des Hirundinidae. Son aire de répartition s'étend sur le Cameroun, le Gabon, la République du Congo, la République démocratique du Congo, l'Angola, la Zambie. Elle est aussi signalée au Togo, et en Éthiopie.
